--- a/T03-BOM.xlsx
+++ b/T03-BOM.xlsx
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="80">
   <si>
     <t>Qty</t>
   </si>
@@ -229,9 +229,6 @@
     <t>BOM: Group 3</t>
   </si>
   <si>
-    <t>Rev: 1</t>
-  </si>
-  <si>
     <t>SURFACE MOUNT LED</t>
   </si>
   <si>
@@ -245,13 +242,55 @@
   </si>
   <si>
     <t>CAPACITOR</t>
+  </si>
+  <si>
+    <t>Rev: 2</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>Price (each)</t>
+  </si>
+  <si>
+    <t>Price (total)</t>
+  </si>
+  <si>
+    <t>Sparkfun</t>
+  </si>
+  <si>
+    <t>Digikey</t>
+  </si>
+  <si>
+    <t>Mouser</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>ELECTRIC DOOR STRIKE</t>
+  </si>
+  <si>
+    <t>UHPPOTE ELECTRIC STRIKE</t>
+  </si>
+  <si>
+    <t>Amazon</t>
+  </si>
+  <si>
+    <t>GSM GPRS</t>
+  </si>
+  <si>
+    <t>SAINSMART SMALL GSM GPRS SIM900</t>
+  </si>
+  <si>
+    <t>TOTAL:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -267,6 +306,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF111111"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -276,7 +330,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -299,11 +353,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -315,8 +381,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -599,10 +682,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -612,17 +695,19 @@
     <col min="4" max="4" width="24.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="52.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>60</v>
       </c>
       <c r="C1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -641,70 +726,107 @@
       <c r="F2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G2" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="I3" s="2">
+        <f t="shared" ref="I3:I4" si="0">H3*A3</f>
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1</v>
       </c>
-      <c r="B4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="I4" s="2">
+        <f t="shared" si="0"/>
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>1</v>
       </c>
-      <c r="B5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G5" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.95</v>
+      </c>
+      <c r="I5" s="2">
+        <f>H5*A5</f>
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>1</v>
       </c>
@@ -717,16 +839,24 @@
       <c r="D6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="I6" s="2">
+        <f t="shared" ref="I6:I19" si="1">H6*A6</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>2</v>
       </c>
@@ -739,16 +869,24 @@
       <c r="D7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="I7" s="2">
+        <f t="shared" si="1"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>1</v>
       </c>
@@ -761,16 +899,24 @@
       <c r="D8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G8" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="I8" s="2">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>1</v>
       </c>
@@ -783,16 +929,24 @@
       <c r="D9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="2" t="s">
         <v>29</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G9" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I9" s="2">
+        <f t="shared" si="1"/>
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>2</v>
       </c>
@@ -805,16 +959,24 @@
       <c r="D10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="2" t="s">
         <v>31</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="I10" s="2">
+        <f t="shared" si="1"/>
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>2</v>
       </c>
@@ -827,16 +989,24 @@
       <c r="D11" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="2" t="s">
         <v>35</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0.64</v>
+      </c>
+      <c r="I11" s="2">
+        <f t="shared" si="1"/>
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>1</v>
       </c>
@@ -849,16 +1019,24 @@
       <c r="D12" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="2" t="s">
         <v>38</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G12" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H12" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="I12" s="2">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>1</v>
       </c>
@@ -871,16 +1049,24 @@
       <c r="D13" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="2" t="s">
         <v>42</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G13" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H13" s="2">
+        <v>4.3</v>
+      </c>
+      <c r="I13" s="2">
+        <f t="shared" si="1"/>
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>1</v>
       </c>
@@ -893,16 +1079,24 @@
       <c r="D14" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="2" t="s">
         <v>46</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G14" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I14" s="2">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>1</v>
       </c>
@@ -915,16 +1109,24 @@
       <c r="D15" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="2" t="s">
         <v>50</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G15" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0.95</v>
+      </c>
+      <c r="I15" s="2">
+        <f t="shared" si="1"/>
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>1</v>
       </c>
@@ -937,16 +1139,24 @@
       <c r="D16" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G16" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H16" s="2">
+        <v>1.95</v>
+      </c>
+      <c r="I16" s="2">
+        <f t="shared" si="1"/>
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>1</v>
       </c>
@@ -959,17 +1169,113 @@
       <c r="D17" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="2" t="s">
         <v>58</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
+      <c r="G17" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="I17" s="2">
+        <f t="shared" si="1"/>
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="8">
+        <v>1</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="H18" s="8">
+        <v>24.2</v>
+      </c>
+      <c r="I18" s="8">
+        <f t="shared" si="1"/>
+        <v>24.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="8">
+        <v>1</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="H19" s="8">
+        <v>28.99</v>
+      </c>
+      <c r="I19" s="8">
+        <f t="shared" si="1"/>
+        <v>28.99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H20" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="I20" s="7">
+        <f>SUM(I3:I19)</f>
+        <v>67.319999999999993</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G8" r:id="rId1"/>
+    <hyperlink ref="G5" r:id="rId2"/>
+    <hyperlink ref="G16" r:id="rId3"/>
+    <hyperlink ref="G3" r:id="rId4"/>
+    <hyperlink ref="G13" r:id="rId5"/>
+    <hyperlink ref="G17" r:id="rId6"/>
+    <hyperlink ref="G15" r:id="rId7"/>
+    <hyperlink ref="G14" r:id="rId8"/>
+    <hyperlink ref="G12" r:id="rId9"/>
+    <hyperlink ref="G4" r:id="rId10"/>
+    <hyperlink ref="G10" r:id="rId11"/>
+    <hyperlink ref="G6" r:id="rId12"/>
+    <hyperlink ref="G9" r:id="rId13"/>
+    <hyperlink ref="G11" r:id="rId14"/>
+    <hyperlink ref="G7" r:id="rId15"/>
+    <hyperlink ref="G18" r:id="rId16"/>
+    <hyperlink ref="G19" r:id="rId17"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId18"/>
 </worksheet>
 </file>